--- a/results/mp/logistic/corona/confidence/84/desired-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/desired-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="138">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,321 +43,336 @@
     <t>death</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>kill</t>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>infected</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>fraud</t>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>hell</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>sc</t>
+    <t>drop</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>problem</t>
   </si>
   <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>prices</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
     <t>the</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>and</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>corona</t>
   </si>
   <si>
-    <t>to</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>great</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
     <t>wish</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>security</t>
   </si>
   <si>
     <t>growth</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>giving</t>
+    <t>care</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>team</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
     <t>credit</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>yes</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
     <t>sure</t>
   </si>
   <si>
+    <t>easter</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
     <t>give</t>
   </si>
   <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
     <t>check</t>
   </si>
   <si>
@@ -367,22 +382,37 @@
     <t>staff</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
     <t>stay</t>
   </si>
   <si>
+    <t>need</t>
+  </si>
+  <si>
     <t>your</t>
   </si>
   <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
     <t>you</t>
   </si>
   <si>
-    <t>amp</t>
+    <t>all</t>
   </si>
   <si>
     <t>!</t>
   </si>
   <si>
-    <t>we</t>
+    <t>it</t>
   </si>
   <si>
     <t>for</t>
@@ -391,19 +421,13 @@
     <t>grocery</t>
   </si>
   <si>
-    <t>are</t>
-  </si>
-  <si>
     <t>i</t>
   </si>
   <si>
-    <t>,</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
-    <t>in</t>
+    <t>is</t>
   </si>
 </sst>
 </file>
@@ -761,7 +785,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q91"/>
+  <dimension ref="A1:Q97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -769,10 +793,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="J1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -851,16 +875,16 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="K3">
-        <v>0.9666666666666667</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -872,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -880,13 +904,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8321917808219178</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C4">
-        <v>243</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>243</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -898,19 +922,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="K4">
-        <v>0.9565217391304348</v>
+        <v>0.95</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -922,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -930,13 +954,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8157894736842105</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -948,10 +972,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="K5">
         <v>0.9491525423728814</v>
@@ -980,13 +1004,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7931034482758621</v>
+        <v>0.821917808219178</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>240</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>240</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -998,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L6">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="M6">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1022,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1051,16 +1075,16 @@
         <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K7">
-        <v>0.9090909090909091</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1072,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1080,7 +1104,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7837837837837838</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C8">
         <v>29</v>
@@ -1098,19 +1122,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K8">
-        <v>0.8981723237597912</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L8">
-        <v>344</v>
+        <v>14</v>
       </c>
       <c r="M8">
-        <v>344</v>
+        <v>14</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1122,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1151,16 +1175,16 @@
         <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K9">
-        <v>0.8947368421052632</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1201,16 +1225,16 @@
         <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K10">
-        <v>0.8928571428571429</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1222,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1230,13 +1254,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7391304347826086</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1248,19 +1272,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="K11">
-        <v>0.8888888888888888</v>
+        <v>0.9017857142857143</v>
       </c>
       <c r="L11">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="M11">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1272,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1280,13 +1304,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7333333333333333</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1301,16 +1325,16 @@
         <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="K12">
-        <v>0.8846153846153846</v>
+        <v>0.8981723237597912</v>
       </c>
       <c r="L12">
-        <v>23</v>
+        <v>344</v>
       </c>
       <c r="M12">
-        <v>23</v>
+        <v>344</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1322,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1330,13 +1354,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7307692307692307</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1348,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="K13">
-        <v>0.8837209302325582</v>
+        <v>0.875</v>
       </c>
       <c r="L13">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="M13">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1372,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1380,13 +1404,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7058823529411765</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C14">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1398,19 +1422,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="K14">
-        <v>0.8793103448275862</v>
+        <v>0.8732394366197183</v>
       </c>
       <c r="L14">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="M14">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1422,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1451,16 +1475,16 @@
         <v>75</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K15">
-        <v>0.875</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L15">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="M15">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1472,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1480,13 +1504,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5686274509803921</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1498,19 +1522,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="K16">
-        <v>0.8717948717948718</v>
+        <v>0.8671875</v>
       </c>
       <c r="L16">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="M16">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1522,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1530,13 +1554,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5678294573643411</v>
+        <v>0.5717054263565892</v>
       </c>
       <c r="C17">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D17">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1548,19 +1572,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="K17">
-        <v>0.8671875</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L17">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="M17">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1572,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1601,16 +1625,16 @@
         <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K18">
-        <v>0.8666666666666667</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L18">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1622,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1630,37 +1654,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5254237288135594</v>
+        <v>0.5344827586206896</v>
       </c>
       <c r="C19">
         <v>31</v>
       </c>
       <c r="D19">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="K19">
-        <v>0.8591549295774648</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="L19">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="M19">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1672,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1680,13 +1704,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4666666666666667</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1698,19 +1722,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="K20">
-        <v>0.8584905660377359</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L20">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="M20">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1722,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1730,13 +1754,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3636363636363636</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1748,19 +1772,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K21">
-        <v>0.85</v>
+        <v>0.84375</v>
       </c>
       <c r="L21">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M21">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1772,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1780,7 +1804,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3333333333333333</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C22">
         <v>13</v>
@@ -1798,19 +1822,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="K22">
-        <v>0.8297872340425532</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L22">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1822,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1830,13 +1854,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3288590604026846</v>
+        <v>0.4161073825503356</v>
       </c>
       <c r="C23">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D23">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1848,19 +1872,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="K23">
-        <v>0.8292682926829268</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L23">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="M23">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1872,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1880,13 +1904,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.325</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D24">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1898,19 +1922,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="K24">
-        <v>0.8235294117647058</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L24">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="M24">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1922,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1930,37 +1954,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3066666666666666</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C25">
+        <v>14</v>
+      </c>
+      <c r="D25">
+        <v>14</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>23</v>
       </c>
-      <c r="D25">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>52</v>
-      </c>
       <c r="J25" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="K25">
-        <v>0.82</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L25">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="M25">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1972,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1980,13 +2004,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2678571428571428</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D26">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1998,19 +2022,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K26">
-        <v>0.8055555555555556</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L26">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M26">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2022,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2030,13 +2054,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2638888888888889</v>
+        <v>0.325</v>
       </c>
       <c r="C27">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="D27">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2048,19 +2072,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K27">
-        <v>0.7936507936507936</v>
+        <v>0.813953488372093</v>
       </c>
       <c r="L27">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="M27">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2072,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2080,13 +2104,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2545454545454545</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="C28">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D28">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2101,16 +2125,16 @@
         <v>41</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="K28">
-        <v>0.7857142857142857</v>
+        <v>0.8125</v>
       </c>
       <c r="L28">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="M28">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2122,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2130,13 +2154,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1948051948051948</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="C29">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2148,19 +2172,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K29">
-        <v>0.7857142857142857</v>
+        <v>0.8</v>
       </c>
       <c r="L29">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M29">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2172,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2180,13 +2204,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1547619047619048</v>
+        <v>0.1948051948051948</v>
       </c>
       <c r="C30">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D30">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2198,31 +2222,31 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="K30">
-        <v>0.7727272727272727</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L30">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M30">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N30">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2230,13 +2254,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.07506702412868632</v>
+        <v>0.1875</v>
       </c>
       <c r="C31">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D31">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2248,19 +2272,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>345</v>
+        <v>65</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="K31">
-        <v>0.7727272727272727</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L31">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M31">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2272,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2280,37 +2304,37 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01123595505617977</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C32">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D32">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E32">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>1144</v>
+        <v>75</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="K32">
-        <v>0.7529411764705882</v>
+        <v>0.78</v>
       </c>
       <c r="L32">
-        <v>256</v>
+        <v>39</v>
       </c>
       <c r="M32">
-        <v>256</v>
+        <v>39</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2322,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>84</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2330,37 +2354,37 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.01098901098901099</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="C33">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D33">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E33">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>3060</v>
+        <v>212</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K33">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L33">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M33">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2372,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2380,37 +2404,37 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.009380863039399626</v>
+        <v>0.1021505376344086</v>
       </c>
       <c r="C34">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D34">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E34">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="F34">
-        <v>0.65</v>
+        <v>0.97</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>2112</v>
+        <v>334</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="K34">
-        <v>0.75</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L34">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M34">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2422,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2430,37 +2454,37 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.008449514152936205</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="C35">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D35">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E35">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.62</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>2347</v>
+        <v>284</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="K35">
-        <v>0.75</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L35">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="M35">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2472,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2480,37 +2504,37 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.006460454189506656</v>
+        <v>0.01876415399547072</v>
       </c>
       <c r="C36">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D36">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E36">
-        <v>0.63</v>
+        <v>0.22</v>
       </c>
       <c r="F36">
-        <v>0.37</v>
+        <v>0.78</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>5075</v>
+        <v>3033</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K36">
-        <v>0.7407407407407407</v>
+        <v>0.75</v>
       </c>
       <c r="L36">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M36">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2522,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2530,37 +2554,37 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.006102212051868803</v>
+        <v>0.01557093425605536</v>
       </c>
       <c r="C37">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D37">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="E37">
-        <v>0.76</v>
+        <v>0.22</v>
       </c>
       <c r="F37">
-        <v>0.24</v>
+        <v>0.78</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>2606</v>
+        <v>1138</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K37">
-        <v>0.7380952380952381</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L37">
-        <v>217</v>
+        <v>17</v>
       </c>
       <c r="M37">
-        <v>218</v>
+        <v>17</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2569,10 +2593,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>77</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2580,28 +2604,28 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0056694286960314</v>
+        <v>0.0146295422369042</v>
       </c>
       <c r="C38">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D38">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E38">
-        <v>0.55</v>
+        <v>0.44</v>
       </c>
       <c r="F38">
-        <v>0.45</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>2280</v>
+        <v>2088</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K38">
         <v>0.7368421052631579</v>
@@ -2630,37 +2654,37 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.004440855874041178</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C39">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D39">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="E39">
-        <v>0.66</v>
+        <v>0.54</v>
       </c>
       <c r="F39">
-        <v>0.34</v>
+        <v>0.46</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>4932</v>
+        <v>1261</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K39">
-        <v>0.7238493723849372</v>
+        <v>0.7294117647058823</v>
       </c>
       <c r="L39">
-        <v>173</v>
+        <v>248</v>
       </c>
       <c r="M39">
-        <v>173</v>
+        <v>248</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2672,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>66</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2680,37 +2704,37 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.004434589800443459</v>
+        <v>0.009966777408637873</v>
       </c>
       <c r="C40">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D40">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E40">
-        <v>0.76</v>
+        <v>0.61</v>
       </c>
       <c r="F40">
-        <v>0.24</v>
+        <v>0.39</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>3143</v>
+        <v>2384</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K40">
-        <v>0.723404255319149</v>
+        <v>0.7220338983050848</v>
       </c>
       <c r="L40">
-        <v>68</v>
+        <v>213</v>
       </c>
       <c r="M40">
-        <v>68</v>
+        <v>213</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2722,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>26</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2730,37 +2754,37 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004418604651162791</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="C41">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D41">
         <v>47</v>
       </c>
       <c r="E41">
-        <v>0.6</v>
+        <v>0.53</v>
       </c>
       <c r="F41">
-        <v>0.4</v>
+        <v>0.47</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>4281</v>
+        <v>2332</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="K41">
-        <v>0.7142857142857143</v>
+        <v>0.7196652719665272</v>
       </c>
       <c r="L41">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="M41">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2772,12 +2796,36 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>10</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.008620689655172414</v>
+      </c>
+      <c r="C42">
+        <v>44</v>
+      </c>
+      <c r="D42">
+        <v>105</v>
+      </c>
+      <c r="E42">
+        <v>0.58</v>
+      </c>
+      <c r="F42">
+        <v>0.42</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>5060</v>
+      </c>
       <c r="J42" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K42">
         <v>0.696969696969697</v>
@@ -2802,17 +2850,41 @@
       </c>
     </row>
     <row r="43" spans="1:17">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.006977758395115569</v>
+      </c>
+      <c r="C43">
+        <v>16</v>
+      </c>
+      <c r="D43">
+        <v>32</v>
+      </c>
+      <c r="E43">
+        <v>0.5</v>
+      </c>
+      <c r="F43">
+        <v>0.5</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>2277</v>
+      </c>
       <c r="J43" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K43">
-        <v>0.676923076923077</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="L43">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="M43">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2824,99 +2896,195 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.006755182855811786</v>
+      </c>
+      <c r="C44">
+        <v>29</v>
+      </c>
+      <c r="D44">
+        <v>64</v>
+      </c>
+      <c r="E44">
+        <v>0.55</v>
+      </c>
+      <c r="F44">
+        <v>0.45</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>4264</v>
+      </c>
       <c r="J44" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K44">
+        <v>0.6808510638297872</v>
+      </c>
+      <c r="L44">
+        <v>64</v>
+      </c>
+      <c r="M44">
+        <v>64</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.006542056074766356</v>
+      </c>
+      <c r="C45">
+        <v>14</v>
+      </c>
+      <c r="D45">
+        <v>32</v>
+      </c>
+      <c r="E45">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F45">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>2126</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K45">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="L45">
+        <v>19</v>
+      </c>
+      <c r="M45">
+        <v>19</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.006124948958758677</v>
+      </c>
+      <c r="C46">
+        <v>30</v>
+      </c>
+      <c r="D46">
+        <v>128</v>
+      </c>
+      <c r="E46">
+        <v>0.77</v>
+      </c>
+      <c r="F46">
+        <v>0.23</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>4868</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K46">
         <v>0.6666666666666666</v>
       </c>
-      <c r="L44">
+      <c r="L46">
+        <v>18</v>
+      </c>
+      <c r="M46">
+        <v>18</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.006099885627144491</v>
+      </c>
+      <c r="C47">
         <v>16</v>
       </c>
-      <c r="M44">
-        <v>16</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="J45" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K45">
-        <v>0.625</v>
-      </c>
-      <c r="L45">
-        <v>25</v>
-      </c>
-      <c r="M45">
-        <v>25</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="J46" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K46">
-        <v>0.6142857142857143</v>
-      </c>
-      <c r="L46">
-        <v>43</v>
-      </c>
-      <c r="M46">
-        <v>43</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
+      <c r="D47">
+        <v>66</v>
+      </c>
+      <c r="E47">
+        <v>0.76</v>
+      </c>
+      <c r="F47">
+        <v>0.24</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>2607</v>
+      </c>
       <c r="J47" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K47">
-        <v>0.6086956521739131</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="L47">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M47">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2932,17 +3100,41 @@
       </c>
     </row>
     <row r="48" spans="1:17">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>0.005400254129606099</v>
+      </c>
+      <c r="C48">
+        <v>17</v>
+      </c>
+      <c r="D48">
+        <v>70</v>
+      </c>
+      <c r="E48">
+        <v>0.76</v>
+      </c>
+      <c r="F48">
+        <v>0.24</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>3131</v>
+      </c>
       <c r="J48" s="1" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K48">
-        <v>0.6067415730337079</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L48">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="M48">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2954,21 +3146,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K49">
-        <v>0.5952380952380952</v>
+        <v>0.6404494382022472</v>
       </c>
       <c r="L49">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="M49">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2980,21 +3172,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K50">
-        <v>0.5925925925925926</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L50">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="M50">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3006,21 +3198,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K51">
-        <v>0.5882352941176471</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L51">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="M51">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3032,21 +3224,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="K52">
-        <v>0.5833333333333334</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="L52">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M52">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3058,21 +3250,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K53">
-        <v>0.5833333333333334</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L53">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M53">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3084,21 +3276,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="K54">
-        <v>0.5769230769230769</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L54">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M54">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3110,21 +3302,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="K55">
-        <v>0.5652173913043478</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L55">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M55">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3136,21 +3328,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="K56">
-        <v>0.5588235294117647</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="L56">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M56">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3162,21 +3354,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K57">
-        <v>0.5416666666666666</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L57">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M57">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3188,21 +3380,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K58">
-        <v>0.5185185185185185</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L58">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M58">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3214,21 +3406,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K59">
-        <v>0.5128205128205128</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L59">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M59">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3240,73 +3432,73 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K60">
         <v>0.5</v>
       </c>
       <c r="L60">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M60">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="N60">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>13</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="K61">
-        <v>0.5</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="L61">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M61">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="N61">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="K62">
-        <v>0.4794520547945205</v>
+        <v>0.421875</v>
       </c>
       <c r="L62">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M62">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3318,21 +3510,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="K63">
-        <v>0.4666666666666667</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L63">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M63">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3344,47 +3536,47 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="K64">
-        <v>0.4210526315789473</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="L64">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M64">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="K65">
-        <v>0.328125</v>
+        <v>0.2765957446808511</v>
       </c>
       <c r="L65">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M65">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3396,21 +3588,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="K66">
-        <v>0.2950819672131147</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="L66">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M66">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3422,47 +3614,47 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="K67">
-        <v>0.288135593220339</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="L67">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M67">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>42</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="K68">
-        <v>0.2222222222222222</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="L68">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M68">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3474,21 +3666,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>56</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="K69">
-        <v>0.1559633027522936</v>
+        <v>0.134020618556701</v>
       </c>
       <c r="L69">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M69">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3500,21 +3692,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="K70">
-        <v>0.1532258064516129</v>
+        <v>0.1046511627906977</v>
       </c>
       <c r="L70">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M70">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3526,21 +3718,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>105</v>
+        <v>154</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="K71">
-        <v>0.1443298969072165</v>
+        <v>0.09202453987730061</v>
       </c>
       <c r="L71">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M71">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -3552,21 +3744,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>83</v>
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="K72">
-        <v>0.06493506493506493</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L72">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M72">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -3578,501 +3770,657 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="K73">
-        <v>0.04761904761904762</v>
+        <v>0.06574394463667819</v>
       </c>
       <c r="L73">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="M73">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N73">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>520</v>
+        <v>270</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="K74">
-        <v>0.04340567612687813</v>
+        <v>0.06066176470588235</v>
       </c>
       <c r="L74">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="M74">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="N74">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="O74">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>1146</v>
+        <v>511</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="K75">
-        <v>0.03724928366762178</v>
+        <v>0.06024096385542169</v>
       </c>
       <c r="L75">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="M75">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q75">
-        <v>336</v>
+        <v>390</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="K76">
-        <v>0.0315040650406504</v>
+        <v>0.05502392344497608</v>
       </c>
       <c r="L76">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M76">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="N76">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>953</v>
+        <v>395</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="K77">
-        <v>0.026578073089701</v>
+        <v>0.04096989966555184</v>
       </c>
       <c r="L77">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="M77">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="N77">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="O77">
-        <v>0.16</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>586</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="K78">
-        <v>0.01919458035378246</v>
+        <v>0.03512014787430684</v>
       </c>
       <c r="L78">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="M78">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="N78">
-        <v>0.76</v>
+        <v>0.86</v>
       </c>
       <c r="O78">
-        <v>0.24</v>
+        <v>0.14</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>2606</v>
+        <v>522</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="K79">
-        <v>0.01826196473551637</v>
+        <v>0.03353658536585366</v>
       </c>
       <c r="L79">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M79">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N79">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="O79">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>1559</v>
+        <v>951</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="K80">
-        <v>0.01777777777777778</v>
+        <v>0.02377972465581978</v>
       </c>
       <c r="L80">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M80">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N80">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="O80">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>884</v>
+        <v>780</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="K81">
-        <v>0.015600624024961</v>
+        <v>0.02012578616352201</v>
       </c>
       <c r="L81">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M81">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N81">
-        <v>0.74</v>
+        <v>0.89</v>
       </c>
       <c r="O81">
-        <v>0.26</v>
+        <v>0.11</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>1262</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="K82">
-        <v>0.01541425818882466</v>
+        <v>0.01973419250906162</v>
       </c>
       <c r="L82">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="M82">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="N82">
-        <v>0.89</v>
+        <v>0.77</v>
       </c>
       <c r="O82">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="P82" t="b">
         <v>1</v>
       </c>
       <c r="Q82">
-        <v>1022</v>
+        <v>4868</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>127</v>
+        <v>52</v>
       </c>
       <c r="K83">
-        <v>0.01437371663244353</v>
+        <v>0.01881821603312006</v>
       </c>
       <c r="L83">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="M83">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="N83">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="O83">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>2400</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="K84">
-        <v>0.01380608722936931</v>
+        <v>0.01664816870144284</v>
       </c>
       <c r="L84">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="M84">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="N84">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="O84">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="P84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>3143</v>
+        <v>886</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="K85">
-        <v>0.01380175658720201</v>
+        <v>0.01664572864321608</v>
       </c>
       <c r="L85">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="M85">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="N85">
-        <v>0.92</v>
+        <v>0.76</v>
       </c>
       <c r="O85">
-        <v>0.07999999999999996</v>
+        <v>0.24</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>2358</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="K86">
-        <v>0.01110678098207327</v>
+        <v>0.0163776493256262</v>
       </c>
       <c r="L86">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="M86">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="N86">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="O86">
-        <v>0.37</v>
+        <v>0.11</v>
       </c>
       <c r="P86" t="b">
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>5075</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K87">
-        <v>0.008443908323281062</v>
+        <v>0.01528294093349855</v>
       </c>
       <c r="L87">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M87">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N87">
-        <v>0.66</v>
+        <v>0.61</v>
       </c>
       <c r="O87">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="P87" t="b">
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>4932</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="K88">
-        <v>0.006968641114982578</v>
+        <v>0.01383067896060352</v>
       </c>
       <c r="L88">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M88">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="N88">
-        <v>0.55</v>
+        <v>0.8</v>
       </c>
       <c r="O88">
-        <v>0.45</v>
+        <v>0.2</v>
       </c>
       <c r="P88" t="b">
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>2280</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="K89">
-        <v>0.006508600650860065</v>
+        <v>0.01191173598906464</v>
       </c>
       <c r="L89">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="M89">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="N89">
-        <v>0.67</v>
+        <v>0.58</v>
       </c>
       <c r="O89">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="P89" t="b">
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>2137</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K90">
-        <v>0.006498027384543977</v>
+        <v>0.01175548589341693</v>
       </c>
       <c r="L90">
+        <v>15</v>
+      </c>
+      <c r="M90">
         <v>28</v>
       </c>
-      <c r="M90">
-        <v>47</v>
-      </c>
       <c r="N90">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="O90">
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
       <c r="P90" t="b">
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>4281</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K91">
-        <v>0.004230393752033843</v>
+        <v>0.01136363636363636</v>
       </c>
       <c r="L91">
+        <v>24</v>
+      </c>
+      <c r="M91">
+        <v>55</v>
+      </c>
+      <c r="N91">
+        <v>0.44</v>
+      </c>
+      <c r="O91">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="P91" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="92" spans="10:17">
+      <c r="J92" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K92">
+        <v>0.01060670343657191</v>
+      </c>
+      <c r="L92">
+        <v>25</v>
+      </c>
+      <c r="M92">
+        <v>47</v>
+      </c>
+      <c r="N92">
+        <v>0.53</v>
+      </c>
+      <c r="O92">
+        <v>0.47</v>
+      </c>
+      <c r="P92" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="93" spans="10:17">
+      <c r="J93" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K93">
+        <v>0.009615384615384616</v>
+      </c>
+      <c r="L93">
         <v>13</v>
       </c>
-      <c r="M91">
-        <v>47</v>
-      </c>
-      <c r="N91">
-        <v>0.28</v>
-      </c>
-      <c r="O91">
-        <v>0.72</v>
-      </c>
-      <c r="P91" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q91">
-        <v>3060</v>
+      <c r="M93">
+        <v>24</v>
+      </c>
+      <c r="N93">
+        <v>0.54</v>
+      </c>
+      <c r="O93">
+        <v>0.46</v>
+      </c>
+      <c r="P93" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="94" spans="10:17">
+      <c r="J94" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K94">
+        <v>0.008395522388059701</v>
+      </c>
+      <c r="L94">
+        <v>18</v>
+      </c>
+      <c r="M94">
+        <v>32</v>
+      </c>
+      <c r="N94">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O94">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="P94" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="95" spans="10:17">
+      <c r="J95" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K95">
+        <v>0.008141428239125378</v>
+      </c>
+      <c r="L95">
+        <v>35</v>
+      </c>
+      <c r="M95">
+        <v>64</v>
+      </c>
+      <c r="N95">
+        <v>0.55</v>
+      </c>
+      <c r="O95">
+        <v>0.45</v>
+      </c>
+      <c r="P95" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>4264</v>
+      </c>
+    </row>
+    <row r="96" spans="10:17">
+      <c r="J96" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K96">
+        <v>0.006977758395115569</v>
+      </c>
+      <c r="L96">
+        <v>16</v>
+      </c>
+      <c r="M96">
+        <v>32</v>
+      </c>
+      <c r="N96">
+        <v>0.5</v>
+      </c>
+      <c r="O96">
+        <v>0.5</v>
+      </c>
+      <c r="P96" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="97" spans="10:17">
+      <c r="J97" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K97">
+        <v>0.005247622171203673</v>
+      </c>
+      <c r="L97">
+        <v>16</v>
+      </c>
+      <c r="M97">
+        <v>74</v>
+      </c>
+      <c r="N97">
+        <v>0.22</v>
+      </c>
+      <c r="O97">
+        <v>0.78</v>
+      </c>
+      <c r="P97" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q97">
+        <v>3033</v>
       </c>
     </row>
   </sheetData>
